--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fn1-Itgb7.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fn1-Itgb7.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H2">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I2">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J2">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.6313639202042</v>
+        <v>1.631588</v>
       </c>
       <c r="N2">
-        <v>1.6313639202042</v>
+        <v>3.263176</v>
       </c>
       <c r="O2">
-        <v>0.07500741022052682</v>
+        <v>0.06882101692447344</v>
       </c>
       <c r="P2">
-        <v>0.07500741022052682</v>
+        <v>0.04759911448542056</v>
       </c>
       <c r="Q2">
-        <v>64.4522065657673</v>
+        <v>66.462664574334</v>
       </c>
       <c r="R2">
-        <v>64.4522065657673</v>
+        <v>265.850658297336</v>
       </c>
       <c r="S2">
-        <v>0.005122942018545121</v>
+        <v>0.003831866023977466</v>
       </c>
       <c r="T2">
-        <v>0.005122942018545121</v>
+        <v>0.001821459542485382</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H3">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I3">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J3">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.831222471585094</v>
+        <v>0.9053026666666666</v>
       </c>
       <c r="N3">
-        <v>0.831222471585094</v>
+        <v>2.715908</v>
       </c>
       <c r="O3">
-        <v>0.03821823208085855</v>
+        <v>0.03818601886287323</v>
       </c>
       <c r="P3">
-        <v>0.03821823208085855</v>
+        <v>0.03961625601066862</v>
       </c>
       <c r="Q3">
-        <v>32.84008048553886</v>
+        <v>36.87746384069799</v>
       </c>
       <c r="R3">
-        <v>32.84008048553886</v>
+        <v>221.264783044188</v>
       </c>
       <c r="S3">
-        <v>0.002610272590746759</v>
+        <v>0.002126148592546769</v>
       </c>
       <c r="T3">
-        <v>0.002610272590746759</v>
+        <v>0.001515982142278684</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H4">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I4">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J4">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.30236826760297</v>
+        <v>10.67936233333334</v>
       </c>
       <c r="N4">
-        <v>9.30236826760297</v>
+        <v>32.038087</v>
       </c>
       <c r="O4">
-        <v>0.427707480856368</v>
+        <v>0.450459660088771</v>
       </c>
       <c r="P4">
-        <v>0.427707480856368</v>
+        <v>0.4673313885021416</v>
       </c>
       <c r="Q4">
-        <v>367.5195667312159</v>
+        <v>435.0233494167096</v>
       </c>
       <c r="R4">
-        <v>367.5195667312159</v>
+        <v>2610.140096500257</v>
       </c>
       <c r="S4">
-        <v>0.02921205543403151</v>
+        <v>0.0250810165819096</v>
       </c>
       <c r="T4">
-        <v>0.02921205543403151</v>
+        <v>0.0178832153978599</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H5">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I5">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J5">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.95419027839171</v>
+        <v>8.307871</v>
       </c>
       <c r="N5">
-        <v>7.95419027839171</v>
+        <v>24.923613</v>
       </c>
       <c r="O5">
-        <v>0.3657204905627515</v>
+        <v>0.3504292325619839</v>
       </c>
       <c r="P5">
-        <v>0.3657204905627515</v>
+        <v>0.3635543741978111</v>
       </c>
       <c r="Q5">
-        <v>314.2555186718544</v>
+        <v>338.4207554847405</v>
       </c>
       <c r="R5">
-        <v>314.2555186718544</v>
+        <v>2030.524532908443</v>
       </c>
       <c r="S5">
-        <v>0.02497839696955871</v>
+        <v>0.01951145057237961</v>
       </c>
       <c r="T5">
-        <v>0.02497839696955871</v>
+        <v>0.013912014777034</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H6">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I6">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J6">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.09411410365542</v>
+        <v>1.247457666666667</v>
       </c>
       <c r="N6">
-        <v>1.09411410365542</v>
+        <v>3.742373</v>
       </c>
       <c r="O6">
-        <v>0.0503055537667363</v>
+        <v>0.05261824994436759</v>
       </c>
       <c r="P6">
-        <v>0.0503055537667363</v>
+        <v>0.05458903867708846</v>
       </c>
       <c r="Q6">
-        <v>43.22644833685645</v>
+        <v>50.8151325398005</v>
       </c>
       <c r="R6">
-        <v>43.22644833685645</v>
+        <v>304.890795238803</v>
       </c>
       <c r="S6">
-        <v>0.003435826332359727</v>
+        <v>0.002929716723370243</v>
       </c>
       <c r="T6">
-        <v>0.003435826332359727</v>
+        <v>0.002088940655480932</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H7">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I7">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J7">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.93611099290629</v>
+        <v>0.936118</v>
       </c>
       <c r="N7">
-        <v>0.93611099290629</v>
+        <v>1.872236</v>
       </c>
       <c r="O7">
-        <v>0.04304083251275891</v>
+        <v>0.03948582161753104</v>
       </c>
       <c r="P7">
-        <v>0.04304083251275891</v>
+        <v>0.02730982812686961</v>
       </c>
       <c r="Q7">
-        <v>36.98403424033651</v>
+        <v>38.132725072749</v>
       </c>
       <c r="R7">
-        <v>36.98403424033651</v>
+        <v>152.530900290996</v>
       </c>
       <c r="S7">
-        <v>0.002939652078967978</v>
+        <v>0.00219851994414873</v>
       </c>
       <c r="T7">
-        <v>0.002939652078967978</v>
+        <v>0.001045056144070887</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H8">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I8">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J8">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.6313639202042</v>
+        <v>1.631588</v>
       </c>
       <c r="N8">
-        <v>1.6313639202042</v>
+        <v>3.263176</v>
       </c>
       <c r="O8">
-        <v>0.07500741022052682</v>
+        <v>0.06882101692447344</v>
       </c>
       <c r="P8">
-        <v>0.07500741022052682</v>
+        <v>0.04759911448542056</v>
       </c>
       <c r="Q8">
-        <v>539.6066245425911</v>
+        <v>571.6952302144533</v>
       </c>
       <c r="R8">
-        <v>539.6066245425911</v>
+        <v>3430.17138128672</v>
       </c>
       <c r="S8">
-        <v>0.04289028409809</v>
+        <v>0.03296075387225312</v>
       </c>
       <c r="T8">
-        <v>0.04289028409809</v>
+        <v>0.02350160964362587</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H9">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I9">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J9">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.831222471585094</v>
+        <v>0.9053026666666666</v>
       </c>
       <c r="N9">
-        <v>0.831222471585094</v>
+        <v>2.715908</v>
       </c>
       <c r="O9">
-        <v>0.03821823208085855</v>
+        <v>0.03818601886287323</v>
       </c>
       <c r="P9">
-        <v>0.03821823208085855</v>
+        <v>0.03961625601066862</v>
       </c>
       <c r="Q9">
-        <v>274.943650880693</v>
+        <v>317.2107274837511</v>
       </c>
       <c r="R9">
-        <v>274.943650880693</v>
+        <v>2854.89654735376</v>
       </c>
       <c r="S9">
-        <v>0.02185371854401358</v>
+        <v>0.0182885988226773</v>
       </c>
       <c r="T9">
-        <v>0.02185371854401358</v>
+        <v>0.01956014926684943</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H10">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I10">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J10">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.30236826760297</v>
+        <v>10.67936233333334</v>
       </c>
       <c r="N10">
-        <v>9.30236826760297</v>
+        <v>32.038087</v>
       </c>
       <c r="O10">
-        <v>0.427707480856368</v>
+        <v>0.450459660088771</v>
       </c>
       <c r="P10">
-        <v>0.427707480856368</v>
+        <v>0.4673313885021416</v>
       </c>
       <c r="Q10">
-        <v>3076.94652245652</v>
+        <v>3741.96212996085</v>
       </c>
       <c r="R10">
-        <v>3076.94652245652</v>
+        <v>33677.65916964765</v>
       </c>
       <c r="S10">
-        <v>0.2445691073838434</v>
+        <v>0.2157406363503598</v>
       </c>
       <c r="T10">
-        <v>0.2445691073838434</v>
+        <v>0.2307404241764848</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H11">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I11">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J11">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.95419027839171</v>
+        <v>8.307871</v>
       </c>
       <c r="N11">
-        <v>7.95419027839171</v>
+        <v>24.923613</v>
       </c>
       <c r="O11">
-        <v>0.3657204905627515</v>
+        <v>0.3504292325619839</v>
       </c>
       <c r="P11">
-        <v>0.3657204905627515</v>
+        <v>0.3635543741978111</v>
       </c>
       <c r="Q11">
-        <v>2631.009374386061</v>
+        <v>2911.010760030707</v>
       </c>
       <c r="R11">
-        <v>2631.009374386061</v>
+        <v>26199.09684027636</v>
       </c>
       <c r="S11">
-        <v>0.2091240811356076</v>
+        <v>0.1678326214911053</v>
       </c>
       <c r="T11">
-        <v>0.2091240811356076</v>
+        <v>0.1795015112990532</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H12">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I12">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J12">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.09411410365542</v>
+        <v>1.247457666666667</v>
       </c>
       <c r="N12">
-        <v>1.09411410365542</v>
+        <v>3.742373</v>
       </c>
       <c r="O12">
-        <v>0.0503055537667363</v>
+        <v>0.05261824994436759</v>
       </c>
       <c r="P12">
-        <v>0.0503055537667363</v>
+        <v>0.05458903867708846</v>
       </c>
       <c r="Q12">
-        <v>361.9003773627921</v>
+        <v>437.0990703092845</v>
       </c>
       <c r="R12">
-        <v>361.9003773627921</v>
+        <v>3933.89163278356</v>
       </c>
       <c r="S12">
-        <v>0.02876541779570199</v>
+        <v>0.02520069105500603</v>
       </c>
       <c r="T12">
-        <v>0.02876541779570199</v>
+        <v>0.02695281817065494</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H13">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I13">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J13">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.93611099290629</v>
+        <v>0.936118</v>
       </c>
       <c r="N13">
-        <v>0.93611099290629</v>
+        <v>1.872236</v>
       </c>
       <c r="O13">
-        <v>0.04304083251275891</v>
+        <v>0.03948582161753104</v>
       </c>
       <c r="P13">
-        <v>0.04304083251275891</v>
+        <v>0.02730982812686961</v>
       </c>
       <c r="Q13">
-        <v>309.6376515524191</v>
+        <v>328.0081708849867</v>
       </c>
       <c r="R13">
-        <v>309.6376515524191</v>
+        <v>1968.04902530992</v>
       </c>
       <c r="S13">
-        <v>0.0246113487835812</v>
+        <v>0.01891111910199502</v>
       </c>
       <c r="T13">
-        <v>0.0246113487835812</v>
+        <v>0.01348396765382668</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H14">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I14">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J14">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.6313639202042</v>
+        <v>1.631588</v>
       </c>
       <c r="N14">
-        <v>1.6313639202042</v>
+        <v>3.263176</v>
       </c>
       <c r="O14">
-        <v>0.07500741022052682</v>
+        <v>0.06882101692447344</v>
       </c>
       <c r="P14">
-        <v>0.07500741022052682</v>
+        <v>0.04759911448542056</v>
       </c>
       <c r="Q14">
-        <v>203.4389917590815</v>
+        <v>397.8279864142267</v>
       </c>
       <c r="R14">
-        <v>203.4389917590815</v>
+        <v>2386.96791848536</v>
       </c>
       <c r="S14">
-        <v>0.01617021688822371</v>
+        <v>0.02293653969926348</v>
       </c>
       <c r="T14">
-        <v>0.01617021688822371</v>
+        <v>0.01635416485547666</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H15">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I15">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J15">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.831222471585094</v>
+        <v>0.9053026666666666</v>
       </c>
       <c r="N15">
-        <v>0.831222471585094</v>
+        <v>2.715908</v>
       </c>
       <c r="O15">
-        <v>0.03821823208085855</v>
+        <v>0.03818601886287323</v>
       </c>
       <c r="P15">
-        <v>0.03821823208085855</v>
+        <v>0.03961625601066862</v>
       </c>
       <c r="Q15">
-        <v>103.6574730214681</v>
+        <v>220.7387753375422</v>
       </c>
       <c r="R15">
-        <v>103.6574730214681</v>
+        <v>1986.64897803788</v>
       </c>
       <c r="S15">
-        <v>0.008239147305779512</v>
+        <v>0.0127265648888378</v>
       </c>
       <c r="T15">
-        <v>0.008239147305779512</v>
+        <v>0.01361140409352971</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H16">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I16">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J16">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.30236826760297</v>
+        <v>10.67936233333334</v>
       </c>
       <c r="N16">
-        <v>9.30236826760297</v>
+        <v>32.038087</v>
       </c>
       <c r="O16">
-        <v>0.427707480856368</v>
+        <v>0.450459660088771</v>
       </c>
       <c r="P16">
-        <v>0.427707480856368</v>
+        <v>0.4673313885021416</v>
       </c>
       <c r="Q16">
-        <v>1160.05043258278</v>
+        <v>2603.935070163508</v>
       </c>
       <c r="R16">
-        <v>1160.05043258278</v>
+        <v>23435.41563147158</v>
       </c>
       <c r="S16">
-        <v>0.09220585952547083</v>
+        <v>0.1501283523299504</v>
       </c>
       <c r="T16">
-        <v>0.09220585952547083</v>
+        <v>0.1605663183512333</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H17">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I17">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J17">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.95419027839171</v>
+        <v>8.307871</v>
       </c>
       <c r="N17">
-        <v>7.95419027839171</v>
+        <v>24.923613</v>
       </c>
       <c r="O17">
-        <v>0.3657204905627515</v>
+        <v>0.3504292325619839</v>
       </c>
       <c r="P17">
-        <v>0.3657204905627515</v>
+        <v>0.3635543741978111</v>
       </c>
       <c r="Q17">
-        <v>991.9260996610408</v>
+        <v>2025.697413390604</v>
       </c>
       <c r="R17">
-        <v>991.9260996610408</v>
+        <v>18231.27672051543</v>
       </c>
       <c r="S17">
-        <v>0.07884260549031562</v>
+        <v>0.1167903986838956</v>
       </c>
       <c r="T17">
-        <v>0.07884260549031562</v>
+        <v>0.1249104785632468</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H18">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I18">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J18">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.09411410365542</v>
+        <v>1.247457666666667</v>
       </c>
       <c r="N18">
-        <v>1.09411410365542</v>
+        <v>3.742373</v>
       </c>
       <c r="O18">
-        <v>0.0503055537667363</v>
+        <v>0.05261824994436759</v>
       </c>
       <c r="P18">
-        <v>0.0503055537667363</v>
+        <v>0.05458903867708846</v>
       </c>
       <c r="Q18">
-        <v>136.4413343708058</v>
+        <v>304.1659853265589</v>
       </c>
       <c r="R18">
-        <v>136.4413343708058</v>
+        <v>2737.49386793903</v>
       </c>
       <c r="S18">
-        <v>0.01084495135478911</v>
+        <v>0.01753651184897817</v>
       </c>
       <c r="T18">
-        <v>0.01084495135478911</v>
+        <v>0.01875577198186208</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H19">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I19">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J19">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.93611099290629</v>
+        <v>0.936118</v>
       </c>
       <c r="N19">
-        <v>0.93611099290629</v>
+        <v>1.872236</v>
       </c>
       <c r="O19">
-        <v>0.04304083251275891</v>
+        <v>0.03948582161753104</v>
       </c>
       <c r="P19">
-        <v>0.04304083251275891</v>
+        <v>0.02730982812686961</v>
       </c>
       <c r="Q19">
-        <v>116.7375802620488</v>
+        <v>228.2524381069933</v>
       </c>
       <c r="R19">
-        <v>116.7375802620488</v>
+        <v>1369.51462864196</v>
       </c>
       <c r="S19">
-        <v>0.009278811183252368</v>
+        <v>0.01315976071789884</v>
       </c>
       <c r="T19">
-        <v>0.009278811183252368</v>
+        <v>0.00938314580407499</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H20">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I20">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J20">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.6313639202042</v>
+        <v>1.631588</v>
       </c>
       <c r="N20">
-        <v>1.6313639202042</v>
+        <v>3.263176</v>
       </c>
       <c r="O20">
-        <v>0.07500741022052682</v>
+        <v>0.06882101692447344</v>
       </c>
       <c r="P20">
-        <v>0.07500741022052682</v>
+        <v>0.04759911448542056</v>
       </c>
       <c r="Q20">
-        <v>64.20991680408625</v>
+        <v>79.519184042872</v>
       </c>
       <c r="R20">
-        <v>64.20991680408625</v>
+        <v>477.115104257232</v>
       </c>
       <c r="S20">
-        <v>0.005103683773297728</v>
+        <v>0.004584632011668721</v>
       </c>
       <c r="T20">
-        <v>0.005103683773297728</v>
+        <v>0.003268924986227696</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H21">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I21">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J21">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.831222471585094</v>
+        <v>0.9053026666666666</v>
       </c>
       <c r="N21">
-        <v>0.831222471585094</v>
+        <v>2.715908</v>
       </c>
       <c r="O21">
-        <v>0.03821823208085855</v>
+        <v>0.03818601886287323</v>
       </c>
       <c r="P21">
-        <v>0.03821823208085855</v>
+        <v>0.03961625601066862</v>
       </c>
       <c r="Q21">
-        <v>32.71662753181711</v>
+        <v>44.12200222431733</v>
       </c>
       <c r="R21">
-        <v>32.71662753181711</v>
+        <v>397.0980200188559</v>
       </c>
       <c r="S21">
-        <v>0.002600460012440548</v>
+        <v>0.002543828212667081</v>
       </c>
       <c r="T21">
-        <v>0.002600460012440548</v>
+        <v>0.002720692822420761</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H22">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I22">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J22">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>9.30236826760297</v>
+        <v>10.67936233333334</v>
       </c>
       <c r="N22">
-        <v>9.30236826760297</v>
+        <v>32.038087</v>
       </c>
       <c r="O22">
-        <v>0.427707480856368</v>
+        <v>0.450459660088771</v>
       </c>
       <c r="P22">
-        <v>0.427707480856368</v>
+        <v>0.4673313885021416</v>
       </c>
       <c r="Q22">
-        <v>366.1379813211715</v>
+        <v>520.4832217721928</v>
       </c>
       <c r="R22">
-        <v>366.1379813211715</v>
+        <v>4684.348995949735</v>
       </c>
       <c r="S22">
-        <v>0.02910224100987982</v>
+        <v>0.03000815550102672</v>
       </c>
       <c r="T22">
-        <v>0.02910224100987982</v>
+        <v>0.03209453094323958</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H23">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I23">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J23">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>7.95419027839171</v>
+        <v>8.307871</v>
       </c>
       <c r="N23">
-        <v>7.95419027839171</v>
+        <v>24.923613</v>
       </c>
       <c r="O23">
-        <v>0.3657204905627515</v>
+        <v>0.3504292325619839</v>
       </c>
       <c r="P23">
-        <v>0.3657204905627515</v>
+        <v>0.3635543741978111</v>
       </c>
       <c r="Q23">
-        <v>313.0741643198003</v>
+        <v>404.903151441074</v>
       </c>
       <c r="R23">
-        <v>313.0741643198003</v>
+        <v>3644.128362969666</v>
       </c>
       <c r="S23">
-        <v>0.02488449778175117</v>
+        <v>0.02334445419763705</v>
       </c>
       <c r="T23">
-        <v>0.02488449778175117</v>
+        <v>0.02496752283136718</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H24">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I24">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J24">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.09411410365542</v>
+        <v>1.247457666666667</v>
       </c>
       <c r="N24">
-        <v>1.09411410365542</v>
+        <v>3.742373</v>
       </c>
       <c r="O24">
-        <v>0.0503055537667363</v>
+        <v>0.05261824994436759</v>
       </c>
       <c r="P24">
-        <v>0.0503055537667363</v>
+        <v>0.05458903867708846</v>
       </c>
       <c r="Q24">
-        <v>43.0639507836475</v>
+        <v>60.79771105288734</v>
       </c>
       <c r="R24">
-        <v>43.0639507836475</v>
+        <v>547.1793994759861</v>
       </c>
       <c r="S24">
-        <v>0.003422910319276521</v>
+        <v>0.003505256444520044</v>
       </c>
       <c r="T24">
-        <v>0.003422910319276521</v>
+        <v>0.003748966224158275</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H25">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I25">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J25">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.93611099290629</v>
+        <v>0.936118</v>
       </c>
       <c r="N25">
-        <v>0.93611099290629</v>
+        <v>1.872236</v>
       </c>
       <c r="O25">
-        <v>0.04304083251275891</v>
+        <v>0.03948582161753104</v>
       </c>
       <c r="P25">
-        <v>0.04304083251275891</v>
+        <v>0.02730982812686961</v>
       </c>
       <c r="Q25">
-        <v>36.84500326964427</v>
+        <v>45.623858184692</v>
       </c>
       <c r="R25">
-        <v>36.84500326964427</v>
+        <v>273.743149108152</v>
       </c>
       <c r="S25">
-        <v>0.00292860129204245</v>
+        <v>0.002630416838993239</v>
       </c>
       <c r="T25">
-        <v>0.00292860129204245</v>
+        <v>0.001875534461063393</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H26">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I26">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J26">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.6313639202042</v>
+        <v>1.631588</v>
       </c>
       <c r="N26">
-        <v>1.6313639202042</v>
+        <v>3.263176</v>
       </c>
       <c r="O26">
-        <v>0.07500741022052682</v>
+        <v>0.06882101692447344</v>
       </c>
       <c r="P26">
-        <v>0.07500741022052682</v>
+        <v>0.04759911448542056</v>
       </c>
       <c r="Q26">
-        <v>36.54469140317958</v>
+        <v>37.252542848276</v>
       </c>
       <c r="R26">
-        <v>36.54469140317958</v>
+        <v>223.515257089656</v>
       </c>
       <c r="S26">
-        <v>0.002904731197264395</v>
+        <v>0.002147773553186706</v>
       </c>
       <c r="T26">
-        <v>0.002904731197264395</v>
+        <v>0.001531401127702631</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H27">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I27">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J27">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>0.831222471585094</v>
+        <v>0.9053026666666666</v>
       </c>
       <c r="N27">
-        <v>0.831222471585094</v>
+        <v>2.715908</v>
       </c>
       <c r="O27">
-        <v>0.03821823208085855</v>
+        <v>0.03818601886287323</v>
       </c>
       <c r="P27">
-        <v>0.03821823208085855</v>
+        <v>0.03961625601066862</v>
       </c>
       <c r="Q27">
-        <v>18.62047354073098</v>
+        <v>20.66994019363866</v>
       </c>
       <c r="R27">
-        <v>18.62047354073098</v>
+        <v>186.029461742748</v>
       </c>
       <c r="S27">
-        <v>0.001480036315121041</v>
+        <v>0.001191713303294745</v>
       </c>
       <c r="T27">
-        <v>0.001480036315121041</v>
+        <v>0.001274569491175652</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H28">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I28">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J28">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>9.30236826760297</v>
+        <v>10.67936233333334</v>
       </c>
       <c r="N28">
-        <v>9.30236826760297</v>
+        <v>32.038087</v>
       </c>
       <c r="O28">
-        <v>0.427707480856368</v>
+        <v>0.450459660088771</v>
       </c>
       <c r="P28">
-        <v>0.427707480856368</v>
+        <v>0.4673313885021416</v>
       </c>
       <c r="Q28">
-        <v>208.3852495743124</v>
+        <v>243.8320231055663</v>
       </c>
       <c r="R28">
-        <v>208.3852495743124</v>
+        <v>2194.488207950097</v>
       </c>
       <c r="S28">
-        <v>0.0165633669965966</v>
+        <v>0.01405799257191865</v>
       </c>
       <c r="T28">
-        <v>0.0165633669965966</v>
+        <v>0.01503540187879386</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H29">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I29">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J29">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>7.95419027839171</v>
+        <v>8.307871</v>
       </c>
       <c r="N29">
-        <v>7.95419027839171</v>
+        <v>24.923613</v>
       </c>
       <c r="O29">
-        <v>0.3657204905627515</v>
+        <v>0.3504292325619839</v>
       </c>
       <c r="P29">
-        <v>0.3657204905627515</v>
+        <v>0.3635543741978111</v>
       </c>
       <c r="Q29">
-        <v>178.1842944335872</v>
+        <v>189.685950378067</v>
       </c>
       <c r="R29">
-        <v>178.1842944335872</v>
+        <v>1707.173553402603</v>
       </c>
       <c r="S29">
-        <v>0.01416286357965395</v>
+        <v>0.010936232441699</v>
       </c>
       <c r="T29">
-        <v>0.01416286357965395</v>
+        <v>0.01169659529692054</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H30">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I30">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J30">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.09411410365542</v>
+        <v>1.247457666666667</v>
       </c>
       <c r="N30">
-        <v>1.09411410365542</v>
+        <v>3.742373</v>
       </c>
       <c r="O30">
-        <v>0.0503055537667363</v>
+        <v>0.05261824994436759</v>
       </c>
       <c r="P30">
-        <v>0.0503055537667363</v>
+        <v>0.05458903867708846</v>
       </c>
       <c r="Q30">
-        <v>24.50959089063886</v>
+        <v>28.48204949957367</v>
       </c>
       <c r="R30">
-        <v>24.50959089063886</v>
+        <v>256.338445496163</v>
       </c>
       <c r="S30">
-        <v>0.001948129004751472</v>
+        <v>0.001642115892729454</v>
       </c>
       <c r="T30">
-        <v>0.001948129004751472</v>
+        <v>0.001756287197651576</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H31">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I31">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J31">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.93611099290629</v>
+        <v>0.936118</v>
       </c>
       <c r="N31">
-        <v>0.93611099290629</v>
+        <v>1.872236</v>
       </c>
       <c r="O31">
-        <v>0.04304083251275891</v>
+        <v>0.03948582161753104</v>
       </c>
       <c r="P31">
-        <v>0.04304083251275891</v>
+        <v>0.02730982812686961</v>
       </c>
       <c r="Q31">
-        <v>20.97011398327499</v>
+        <v>21.373518257086</v>
       </c>
       <c r="R31">
-        <v>20.97011398327499</v>
+        <v>128.241109542516</v>
       </c>
       <c r="S31">
-        <v>0.001666795968404579</v>
+        <v>0.001232277684723124</v>
       </c>
       <c r="T31">
-        <v>0.001666795968404579</v>
+        <v>0.0008786361268057451</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H32">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I32">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J32">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.6313639202042</v>
+        <v>1.631588</v>
       </c>
       <c r="N32">
-        <v>1.6313639202042</v>
+        <v>3.263176</v>
       </c>
       <c r="O32">
-        <v>0.07500741022052682</v>
+        <v>0.06882101692447344</v>
       </c>
       <c r="P32">
-        <v>0.07500741022052682</v>
+        <v>0.04759911448542056</v>
       </c>
       <c r="Q32">
-        <v>35.42272277167179</v>
+        <v>40.924043324332</v>
       </c>
       <c r="R32">
-        <v>35.42272277167179</v>
+        <v>163.696173297328</v>
       </c>
       <c r="S32">
-        <v>0.002815552245105857</v>
+        <v>0.002359451764123934</v>
       </c>
       <c r="T32">
-        <v>0.002815552245105857</v>
+        <v>0.001121554329902318</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H33">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I33">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J33">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>0.831222471585094</v>
+        <v>0.9053026666666666</v>
       </c>
       <c r="N33">
-        <v>0.831222471585094</v>
+        <v>2.715908</v>
       </c>
       <c r="O33">
-        <v>0.03821823208085855</v>
+        <v>0.03818601886287323</v>
       </c>
       <c r="P33">
-        <v>0.03821823208085855</v>
+        <v>0.03961625601066862</v>
       </c>
       <c r="Q33">
-        <v>18.04880125634816</v>
+        <v>22.70710838293733</v>
       </c>
       <c r="R33">
-        <v>18.04880125634816</v>
+        <v>136.242650297624</v>
       </c>
       <c r="S33">
-        <v>0.00143459731275711</v>
+        <v>0.001309165042849524</v>
       </c>
       <c r="T33">
-        <v>0.00143459731275711</v>
+        <v>0.0009334581944143819</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H34">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I34">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J34">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>9.30236826760297</v>
+        <v>10.67936233333334</v>
       </c>
       <c r="N34">
-        <v>9.30236826760297</v>
+        <v>32.038087</v>
       </c>
       <c r="O34">
-        <v>0.427707480856368</v>
+        <v>0.450459660088771</v>
       </c>
       <c r="P34">
-        <v>0.427707480856368</v>
+        <v>0.4673313885021416</v>
       </c>
       <c r="Q34">
-        <v>201.9875566587564</v>
+        <v>267.8633863484977</v>
       </c>
       <c r="R34">
-        <v>201.9875566587564</v>
+        <v>1607.180318090986</v>
       </c>
       <c r="S34">
-        <v>0.01605485050654585</v>
+        <v>0.01544350675360571</v>
       </c>
       <c r="T34">
-        <v>0.01605485050654585</v>
+        <v>0.0110114977545303</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H35">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I35">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J35">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>7.95419027839171</v>
+        <v>8.307871</v>
       </c>
       <c r="N35">
-        <v>7.95419027839171</v>
+        <v>24.923613</v>
       </c>
       <c r="O35">
-        <v>0.3657204905627515</v>
+        <v>0.3504292325619839</v>
       </c>
       <c r="P35">
-        <v>0.3657204905627515</v>
+        <v>0.3635543741978111</v>
       </c>
       <c r="Q35">
-        <v>172.7138093561174</v>
+        <v>208.380836790269</v>
       </c>
       <c r="R35">
-        <v>172.7138093561174</v>
+        <v>1250.285020741614</v>
       </c>
       <c r="S35">
-        <v>0.01372804560586438</v>
+        <v>0.01201407517526733</v>
       </c>
       <c r="T35">
-        <v>0.01372804560586438</v>
+        <v>0.008566251430189393</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H36">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I36">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J36">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.09411410365542</v>
+        <v>1.247457666666667</v>
       </c>
       <c r="N36">
-        <v>1.09411410365542</v>
+        <v>3.742373</v>
       </c>
       <c r="O36">
-        <v>0.0503055537667363</v>
+        <v>0.05261824994436759</v>
       </c>
       <c r="P36">
-        <v>0.0503055537667363</v>
+        <v>0.05458903867708846</v>
       </c>
       <c r="Q36">
-        <v>23.75711519322489</v>
+        <v>31.28915608348234</v>
       </c>
       <c r="R36">
-        <v>23.75711519322489</v>
+        <v>187.734936500894</v>
       </c>
       <c r="S36">
-        <v>0.00188831895985747</v>
+        <v>0.001803957979763638</v>
       </c>
       <c r="T36">
-        <v>0.00188831895985747</v>
+        <v>0.001286254447280664</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H37">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I37">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J37">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.93611099290629</v>
+        <v>0.936118</v>
       </c>
       <c r="N37">
-        <v>0.93611099290629</v>
+        <v>1.872236</v>
       </c>
       <c r="O37">
-        <v>0.04304083251275891</v>
+        <v>0.03948582161753104</v>
       </c>
       <c r="P37">
-        <v>0.04304083251275891</v>
+        <v>0.02730982812686961</v>
       </c>
       <c r="Q37">
-        <v>20.32630474081056</v>
+        <v>23.480029020002</v>
       </c>
       <c r="R37">
-        <v>20.32630474081056</v>
+        <v>93.920116080008</v>
       </c>
       <c r="S37">
-        <v>0.001615623206510334</v>
+        <v>0.00135372732977208</v>
       </c>
       <c r="T37">
-        <v>0.001615623206510334</v>
+        <v>0.0006434879370279128</v>
       </c>
     </row>
   </sheetData>
